--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guinslym/Documents/development/ask_schedule_fall/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54759C22-FB18-EC44-B480-4E45DBD5A3BA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084BD52A-479A-5347-87F8-7625AE994802}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -391,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -404,9 +404,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -460,17 +457,11 @@
     <xf numFmtId="0" fontId="11" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -791,8 +782,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -855,8 +846,8 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="58"/>
-      <c r="N2" s="58"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
@@ -866,35 +857,35 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="55">
+      <c r="D3" s="52">
         <v>10</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="7"/>
@@ -904,34 +895,34 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="55">
+      <c r="D4" s="52">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="20"/>
+      <c r="M4" s="19"/>
       <c r="N4" s="6"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -942,30 +933,30 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="52">
         <v>12</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="22" t="s">
+      <c r="G5" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="16" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M5" s="25"/>
+      <c r="M5" s="24"/>
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -976,31 +967,31 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="55">
+      <c r="D6" s="52">
         <v>13</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="16" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M6" s="27"/>
-      <c r="N6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="25"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7"/>
@@ -1010,34 +1001,34 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="55">
+      <c r="D7" s="52">
         <v>14</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L7" s="22" t="s">
+      <c r="L7" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M7" s="25"/>
+      <c r="M7" s="24"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1048,32 +1039,32 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="55">
+      <c r="D8" s="52">
         <v>15</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="28" t="s">
+      <c r="F8" s="23"/>
+      <c r="G8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K8" s="15" t="s">
+      <c r="K8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M8" s="25"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1084,33 +1075,33 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="55">
+      <c r="D9" s="52">
         <v>16</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="16" t="s">
+      <c r="K9" s="23"/>
+      <c r="L9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M9" s="27"/>
-      <c r="N9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7"/>
@@ -1120,30 +1111,30 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="55">
+      <c r="D10" s="52">
         <v>17</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="14" t="s">
+      <c r="G10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="29"/>
+      <c r="J10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M10" s="25"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" s="24"/>
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1154,30 +1145,30 @@
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="55">
+      <c r="D11" s="52">
         <v>18</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="29" t="s">
+      <c r="G11" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M11" s="25"/>
+      <c r="I11" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J11" s="29"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" s="24"/>
       <c r="N11" s="4"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1188,29 +1179,29 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="55">
+      <c r="D12" s="52">
         <v>19</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="29" t="s">
+      <c r="G12" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M12" s="27"/>
-      <c r="N12" s="26"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M12" s="26"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7"/>
@@ -1220,28 +1211,28 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="55">
+      <c r="D13" s="52">
         <v>20</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H13" s="29" t="s">
+      <c r="G13" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M13" s="25"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" s="24"/>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1252,26 +1243,26 @@
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="55">
+      <c r="D14" s="52">
         <v>21</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="E14" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="10" t="s">
+      <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M14" s="25"/>
+      <c r="G14" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" s="24"/>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1279,15 +1270,15 @@
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="25"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="30"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="24"/>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1298,32 +1289,32 @@
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="55">
+      <c r="D16" s="52">
         <v>10</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="29" t="s">
+      <c r="G16" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="18" t="s">
+      <c r="I16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="13" t="s">
+      <c r="J16" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="16" t="s">
+      <c r="K16" s="23"/>
+      <c r="L16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M16" s="25"/>
+      <c r="M16" s="24"/>
       <c r="N16" s="4"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1334,32 +1325,32 @@
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="52">
         <v>11</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H17" s="19" t="s">
+      <c r="H17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="16" t="s">
+      <c r="K17" s="23"/>
+      <c r="L17" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M17" s="25"/>
+      <c r="M17" s="24"/>
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1370,30 +1361,30 @@
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="55">
+      <c r="D18" s="52">
         <v>12</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="29" t="s">
+      <c r="G18" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="23" t="s">
+      <c r="H18" s="29"/>
+      <c r="I18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="16" t="s">
+      <c r="K18" s="23"/>
+      <c r="L18" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M18" s="25"/>
+      <c r="M18" s="24"/>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1404,32 +1395,32 @@
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="55">
+      <c r="D19" s="52">
         <v>13</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="29" t="s">
+      <c r="G19" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="23" t="s">
+      <c r="I19" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="16" t="s">
+      <c r="K19" s="23"/>
+      <c r="L19" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M19" s="25"/>
+      <c r="M19" s="24"/>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1440,32 +1431,32 @@
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="55">
+      <c r="D20" s="52">
         <v>14</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="29" t="s">
+      <c r="G20" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="34" t="s">
+      <c r="I20" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="11" t="s">
+      <c r="J20" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="16" t="s">
+      <c r="K20" s="23"/>
+      <c r="L20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="25"/>
+      <c r="M20" s="24"/>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1476,31 +1467,31 @@
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="55">
+      <c r="D21" s="52">
         <v>15</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="35" t="s">
+      <c r="E21" s="23"/>
+      <c r="F21" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G21" s="29" t="s">
+      <c r="G21" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H21" s="19" t="s">
+      <c r="H21" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="23" t="s">
+      <c r="I21" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="22" t="s">
+      <c r="K21" s="23"/>
+      <c r="L21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="27"/>
-      <c r="N21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="25"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
@@ -1510,31 +1501,31 @@
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="55">
+      <c r="D22" s="52">
         <v>16</v>
       </c>
-      <c r="E22" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="E22" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G22" s="29" t="s">
+      <c r="G22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23" t="s">
+      <c r="H22" s="23"/>
+      <c r="I22" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="14" t="s">
+      <c r="J22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="22" t="s">
+      <c r="K22" s="23"/>
+      <c r="L22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="M22" s="27"/>
-      <c r="N22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="25"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
@@ -1544,29 +1535,29 @@
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="55">
+      <c r="D23" s="52">
         <v>17</v>
       </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="10" t="s">
+      <c r="E23" s="35"/>
+      <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M23" s="27"/>
-      <c r="N23" s="26"/>
+      <c r="G23" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M23" s="26"/>
+      <c r="N23" s="25"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
@@ -1576,30 +1567,30 @@
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="55">
+      <c r="D24" s="52">
         <v>18</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="15" t="s">
+      <c r="G24" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J24" s="30"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="M24" s="25"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="24"/>
       <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1610,25 +1601,25 @@
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="55">
+      <c r="D25" s="52">
         <v>19</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="16" t="s">
+      <c r="G25" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M25" s="3"/>
@@ -1642,25 +1633,25 @@
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="55">
+      <c r="D26" s="52">
         <v>20</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="16" t="s">
+      <c r="F26" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M26" s="3"/>
@@ -1674,23 +1665,23 @@
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="55">
+      <c r="D27" s="52">
         <v>21</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="16" t="s">
+      <c r="F27" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M27" s="3"/>
@@ -1701,14 +1692,14 @@
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
       <c r="M28" s="3"/>
       <c r="N28" s="3"/>
     </row>
@@ -1720,29 +1711,29 @@
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="55">
+      <c r="D29" s="52">
         <v>10</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F29" s="29" t="s">
+      <c r="F29" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="13" t="s">
+      <c r="J29" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="37" t="s">
+      <c r="K29" s="23"/>
+      <c r="L29" s="36" t="s">
         <v>31</v>
       </c>
       <c r="M29" s="3"/>
@@ -1756,29 +1747,29 @@
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="55">
+      <c r="D30" s="52">
         <v>11</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="29" t="s">
+      <c r="F30" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G30" s="11" t="s">
+      <c r="G30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I30" s="23" t="s">
+      <c r="I30" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="19" t="s">
+      <c r="J30" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="37" t="s">
+      <c r="K30" s="23"/>
+      <c r="L30" s="36" t="s">
         <v>31</v>
       </c>
       <c r="M30" s="3"/>
@@ -1792,27 +1783,27 @@
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="55">
+      <c r="D31" s="52">
         <v>12</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F31" s="30"/>
-      <c r="G31" s="11" t="s">
+      <c r="F31" s="29"/>
+      <c r="G31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="I31" s="23" t="s">
+      <c r="I31" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="14" t="s">
+      <c r="J31" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="16" t="s">
+      <c r="K31" s="23"/>
+      <c r="L31" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M31" s="3"/>
@@ -1826,29 +1817,29 @@
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="55">
+      <c r="D32" s="52">
         <v>13</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F32" s="22" t="s">
+      <c r="F32" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G32" s="11" t="s">
+      <c r="G32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="23" t="s">
+      <c r="I32" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="14" t="s">
+      <c r="J32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K32" s="24"/>
-      <c r="L32" s="16" t="s">
+      <c r="K32" s="23"/>
+      <c r="L32" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M32" s="3"/>
@@ -1862,31 +1853,31 @@
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="55">
+      <c r="D33" s="52">
         <v>14</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="11" t="s">
+      <c r="G33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="23" t="s">
+      <c r="I33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="33" t="s">
+      <c r="J33" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="K33" s="15" t="s">
+      <c r="K33" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M33" s="3"/>
@@ -1900,29 +1891,29 @@
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="55">
+      <c r="D34" s="52">
         <v>15</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="E34" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="10" t="s">
+      <c r="F34" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G34" s="11" t="s">
+      <c r="G34" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="35" t="s">
+      <c r="I34" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J34" s="24"/>
-      <c r="K34" s="15" t="s">
+      <c r="J34" s="23"/>
+      <c r="K34" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M34" s="3"/>
@@ -1936,27 +1927,27 @@
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="55">
+      <c r="D35" s="52">
         <v>16</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F35" s="10" t="s">
+      <c r="F35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="11" t="s">
+      <c r="G35" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H35" s="30"/>
-      <c r="I35" s="23" t="s">
+      <c r="H35" s="29"/>
+      <c r="I35" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="14" t="s">
+      <c r="J35" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="16" t="s">
+      <c r="K35" s="23"/>
+      <c r="L35" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M35" s="3"/>
@@ -1970,25 +1961,25 @@
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="55">
+      <c r="D36" s="52">
         <v>17</v>
       </c>
-      <c r="E36" s="30"/>
-      <c r="F36" s="10" t="s">
+      <c r="E36" s="29"/>
+      <c r="F36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="23" t="s">
+      <c r="G36" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H36" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I36" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J36" s="30"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="56" t="s">
+      <c r="J36" s="29"/>
+      <c r="K36" s="23"/>
+      <c r="L36" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M36" s="3"/>
@@ -2002,27 +1993,27 @@
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="55">
+      <c r="D37" s="52">
         <v>18</v>
       </c>
-      <c r="E37" s="30"/>
-      <c r="F37" s="10" t="s">
+      <c r="E37" s="29"/>
+      <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="23" t="s">
+      <c r="G37" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I37" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="15" t="s">
+      <c r="J37" s="29"/>
+      <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="56" t="s">
+      <c r="L37" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M37" s="3"/>
@@ -2036,25 +2027,25 @@
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="55">
+      <c r="D38" s="52">
         <v>19</v>
       </c>
-      <c r="E38" s="30"/>
-      <c r="F38" s="10" t="s">
+      <c r="E38" s="29"/>
+      <c r="F38" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G38" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H38" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="30"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="56" t="s">
+      <c r="H38" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I38" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" s="29"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M38" s="3"/>
@@ -2068,23 +2059,23 @@
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="55">
+      <c r="D39" s="52">
         <v>20</v>
       </c>
-      <c r="E39" s="30"/>
-      <c r="F39" s="10" t="s">
+      <c r="E39" s="29"/>
+      <c r="F39" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G39" s="29" t="s">
+      <c r="G39" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="H39" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I39" s="30"/>
-      <c r="J39" s="30"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="56" t="s">
+      <c r="H39" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="23"/>
+      <c r="L39" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M39" s="3"/>
@@ -2098,23 +2089,23 @@
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="55">
+      <c r="D40" s="52">
         <v>21</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="10" t="s">
+      <c r="E40" s="29"/>
+      <c r="F40" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="30"/>
-      <c r="H40" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="J40" s="30"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="56" t="s">
+      <c r="G40" s="29"/>
+      <c r="H40" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I40" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" s="29"/>
+      <c r="K40" s="23"/>
+      <c r="L40" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M40" s="3"/>
@@ -2125,14 +2116,14 @@
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="30"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
     </row>
@@ -2144,29 +2135,29 @@
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="52">
+        <v>10</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="F42" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="34" t="s">
+      <c r="H42" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I42" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J42" s="15" t="s">
+      <c r="J42" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="40"/>
-      <c r="L42" s="16" t="s">
+      <c r="K42" s="39"/>
+      <c r="L42" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M42" s="3"/>
@@ -2180,29 +2171,29 @@
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E43" s="9" t="s">
+      <c r="D43" s="52">
+        <v>11</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F43" s="10" t="s">
+      <c r="F43" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="23" t="s">
+      <c r="G43" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H43" s="11" t="s">
+      <c r="H43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I43" s="15" t="s">
+      <c r="I43" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="19" t="s">
+      <c r="J43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="40"/>
-      <c r="L43" s="16" t="s">
+      <c r="K43" s="39"/>
+      <c r="L43" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M43" s="3"/>
@@ -2216,27 +2207,27 @@
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="52">
         <v>12</v>
       </c>
-      <c r="F44" s="29" t="s">
+      <c r="E44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="23" t="s">
+      <c r="G44" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H44" s="11" t="s">
+      <c r="H44" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I44" s="12" t="s">
+      <c r="I44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="40"/>
-      <c r="K44" s="40"/>
-      <c r="L44" s="16" t="s">
+      <c r="J44" s="39"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M44" s="3"/>
@@ -2250,27 +2241,27 @@
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="52">
+        <v>13</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="F45" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="23" t="s">
+      <c r="G45" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H45" s="29" t="s">
+      <c r="H45" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="12" t="s">
+      <c r="I45" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="40"/>
-      <c r="L45" s="16" t="s">
+      <c r="J45" s="29"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M45" s="3"/>
@@ -2284,27 +2275,27 @@
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="52">
+        <v>14</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F46" s="10" t="s">
+      <c r="F46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G46" s="23" t="s">
+      <c r="G46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="41"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="19" t="s">
+      <c r="H46" s="40"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K46" s="15" t="s">
+      <c r="K46" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M46" s="3"/>
@@ -2318,31 +2309,31 @@
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="E47" s="19" t="s">
+      <c r="D47" s="52">
+        <v>15</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F47" s="10" t="s">
+      <c r="F47" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G47" s="23" t="s">
+      <c r="G47" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H47" s="29" t="s">
+      <c r="H47" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="I47" s="11" t="s">
+      <c r="I47" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J47" s="14" t="s">
+      <c r="J47" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K47" s="15" t="s">
+      <c r="K47" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="9" t="s">
         <v>13</v>
       </c>
       <c r="M47" s="3"/>
@@ -2356,27 +2347,27 @@
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E48" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F48" s="10" t="s">
+      <c r="D48" s="52">
+        <v>16</v>
+      </c>
+      <c r="E48" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G48" s="23" t="s">
+      <c r="G48" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H48" s="30"/>
-      <c r="I48" s="11" t="s">
+      <c r="H48" s="29"/>
+      <c r="I48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J48" s="14" t="s">
+      <c r="J48" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="K48" s="24"/>
-      <c r="L48" s="16" t="s">
+      <c r="K48" s="23"/>
+      <c r="L48" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M48" s="3"/>
@@ -2390,25 +2381,25 @@
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="8">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="52">
+        <v>17</v>
+      </c>
+      <c r="E49" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F49" s="10" t="s">
+      <c r="F49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H49" s="30"/>
-      <c r="I49" s="11" t="s">
+      <c r="G49" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H49" s="29"/>
+      <c r="I49" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J49" s="30"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="56" t="s">
+      <c r="J49" s="29"/>
+      <c r="K49" s="23"/>
+      <c r="L49" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M49" s="3"/>
@@ -2422,27 +2413,27 @@
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="8">
-        <v>0.75</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="52">
+        <v>18</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F50" s="10" t="s">
+      <c r="F50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H50" s="30"/>
-      <c r="I50" s="11" t="s">
+      <c r="G50" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H50" s="29"/>
+      <c r="I50" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="15" t="s">
+      <c r="J50" s="29"/>
+      <c r="K50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="56" t="s">
+      <c r="L50" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M50" s="3"/>
@@ -2456,23 +2447,23 @@
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="8">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="52">
+        <v>19</v>
+      </c>
+      <c r="E51" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F51" s="10" t="s">
+      <c r="F51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="56" t="s">
+      <c r="G51" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H51" s="29"/>
+      <c r="I51" s="29"/>
+      <c r="J51" s="29"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M51" s="3"/>
@@ -2486,23 +2477,23 @@
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="8">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="52">
+        <v>20</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H52" s="30"/>
-      <c r="I52" s="30"/>
-      <c r="J52" s="30"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="56" t="s">
+      <c r="F52" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H52" s="29"/>
+      <c r="I52" s="29"/>
+      <c r="J52" s="29"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M52" s="3"/>
@@ -2516,23 +2507,23 @@
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="8">
-        <v>0.875</v>
-      </c>
-      <c r="E53" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="56" t="s">
+      <c r="D53" s="52">
+        <v>21</v>
+      </c>
+      <c r="E53" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="F53" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="53" t="s">
         <v>36</v>
       </c>
       <c r="M53" s="3"/>
@@ -2543,14 +2534,14 @@
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="31"/>
-      <c r="F54" s="31"/>
-      <c r="G54" s="31"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="31"/>
-      <c r="K54" s="31"/>
-      <c r="L54" s="31"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="30"/>
       <c r="M54" s="3"/>
       <c r="N54" s="3"/>
     </row>
@@ -2562,25 +2553,25 @@
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="8">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E55" s="14" t="s">
+      <c r="D55" s="52">
+        <v>10</v>
+      </c>
+      <c r="E55" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="35" t="s">
+      <c r="F55" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G55" s="12" t="s">
+      <c r="G55" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="13" t="s">
+      <c r="H55" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="24"/>
-      <c r="L55" s="37" t="s">
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="36" t="s">
         <v>31</v>
       </c>
       <c r="M55" s="3"/>
@@ -2594,25 +2585,25 @@
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="8">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="E56" s="19" t="s">
+      <c r="D56" s="52">
+        <v>11</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F56" s="11" t="s">
+      <c r="F56" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="18" t="s">
+      <c r="H56" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="24"/>
-      <c r="L56" s="37" t="s">
+      <c r="I56" s="29"/>
+      <c r="J56" s="29"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="36" t="s">
         <v>31</v>
       </c>
       <c r="M56" s="3"/>
@@ -2626,25 +2617,25 @@
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E57" s="14" t="s">
+      <c r="D57" s="52">
+        <v>12</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="11" t="s">
+      <c r="F57" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="21" t="s">
+      <c r="G57" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="H57" s="23" t="s">
+      <c r="H57" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="16" t="s">
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M57" s="3"/>
@@ -2658,25 +2649,25 @@
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="8">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E58" s="29" t="s">
+      <c r="D58" s="52">
+        <v>13</v>
+      </c>
+      <c r="E58" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F58" s="11" t="s">
+      <c r="F58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="23" t="s">
+      <c r="H58" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I58" s="30"/>
-      <c r="J58" s="30"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="16" t="s">
+      <c r="I58" s="29"/>
+      <c r="J58" s="29"/>
+      <c r="K58" s="23"/>
+      <c r="L58" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M58" s="3"/>
@@ -2690,25 +2681,25 @@
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="8">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E59" s="35" t="s">
+      <c r="D59" s="52">
+        <v>14</v>
+      </c>
+      <c r="E59" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F59" s="11" t="s">
+      <c r="F59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="33" t="s">
+      <c r="G59" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="H59" s="23" t="s">
+      <c r="H59" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="I59" s="30"/>
-      <c r="J59" s="30"/>
-      <c r="K59" s="24"/>
-      <c r="L59" s="16" t="s">
+      <c r="I59" s="29"/>
+      <c r="J59" s="29"/>
+      <c r="K59" s="23"/>
+      <c r="L59" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M59" s="3"/>
@@ -2722,25 +2713,25 @@
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="8">
-        <v>0.625</v>
-      </c>
-      <c r="E60" s="14" t="s">
+      <c r="D60" s="52">
+        <v>15</v>
+      </c>
+      <c r="E60" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="F60" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="30"/>
-      <c r="J60" s="30"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="16" t="s">
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M60" s="3"/>
@@ -2754,23 +2745,23 @@
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="8">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E61" s="14" t="s">
+      <c r="D61" s="52">
+        <v>16</v>
+      </c>
+      <c r="E61" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F61" s="11" t="s">
+      <c r="F61" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G61" s="12" t="s">
+      <c r="G61" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="24"/>
-      <c r="L61" s="16" t="s">
+      <c r="H61" s="29"/>
+      <c r="I61" s="29"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M61" s="3"/>
@@ -2780,15 +2771,15 @@
       <c r="A62" s="1"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="42"/>
-      <c r="E62" s="43"/>
-      <c r="F62" s="43"/>
-      <c r="G62" s="43"/>
-      <c r="H62" s="43"/>
-      <c r="I62" s="43"/>
-      <c r="J62" s="43"/>
-      <c r="K62" s="43"/>
-      <c r="L62" s="43"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
@@ -2800,25 +2791,25 @@
       <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E63" s="45" t="s">
+      <c r="D63" s="52">
         <v>12</v>
       </c>
-      <c r="F63" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I63" s="46"/>
-      <c r="J63" s="46"/>
-      <c r="K63" s="24"/>
-      <c r="L63" s="57" t="s">
+      <c r="E63" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M63" s="3"/>
@@ -2832,25 +2823,25 @@
       <c r="C64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="44">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E64" s="47" t="s">
+      <c r="D64" s="52">
+        <v>13</v>
+      </c>
+      <c r="E64" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="48" t="s">
+      <c r="F64" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" s="46"/>
-      <c r="J64" s="46"/>
-      <c r="K64" s="24"/>
-      <c r="L64" s="57" t="s">
+      <c r="H64" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" s="44"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M64" s="3"/>
@@ -2864,25 +2855,25 @@
       <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="44">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E65" s="47" t="s">
+      <c r="D65" s="52">
+        <v>14</v>
+      </c>
+      <c r="E65" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="48" t="s">
+      <c r="F65" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="H65" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I65" s="46"/>
-      <c r="J65" s="46"/>
-      <c r="K65" s="24"/>
-      <c r="L65" s="57" t="s">
+      <c r="H65" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M65" s="3"/>
@@ -2896,25 +2887,25 @@
       <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="44">
-        <v>0.625</v>
-      </c>
-      <c r="E66" s="47" t="s">
+      <c r="D66" s="52">
+        <v>15</v>
+      </c>
+      <c r="E66" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I66" s="46"/>
-      <c r="J66" s="46"/>
-      <c r="K66" s="24"/>
-      <c r="L66" s="57" t="s">
+      <c r="F66" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H66" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M66" s="3"/>
@@ -2928,23 +2919,23 @@
       <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="44">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E67" s="47" t="s">
+      <c r="D67" s="52">
+        <v>16</v>
+      </c>
+      <c r="E67" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="24"/>
-      <c r="L67" s="49" t="s">
+      <c r="F67" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="47" t="s">
         <v>19</v>
       </c>
       <c r="M67" s="3"/>
@@ -2958,23 +2949,23 @@
       <c r="C68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="50">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E68" s="51" t="s">
+      <c r="D68" s="52">
+        <v>17</v>
+      </c>
+      <c r="E68" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="24"/>
-      <c r="L68" s="57" t="s">
+      <c r="F68" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" s="49"/>
+      <c r="I68" s="49"/>
+      <c r="J68" s="49"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M68" s="3"/>
@@ -2984,15 +2975,15 @@
       <c r="A69" s="1"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="43"/>
-      <c r="F69" s="43"/>
-      <c r="G69" s="43"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="43"/>
-      <c r="J69" s="43"/>
-      <c r="K69" s="43"/>
-      <c r="L69" s="43"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
     </row>
@@ -3004,25 +2995,25 @@
       <c r="C70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="E70" s="45" t="s">
+      <c r="D70" s="52">
         <v>12</v>
       </c>
-      <c r="F70" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="24"/>
-      <c r="L70" s="57" t="s">
+      <c r="E70" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G70" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H70" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M70" s="3"/>
@@ -3036,25 +3027,25 @@
       <c r="C71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="44">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E71" s="47" t="s">
+      <c r="D71" s="52">
+        <v>13</v>
+      </c>
+      <c r="E71" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" s="54" t="s">
+      <c r="F71" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H71" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I71" s="46"/>
-      <c r="J71" s="46"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="57" t="s">
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M71" s="3"/>
@@ -3068,25 +3059,25 @@
       <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="44">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E72" s="47" t="s">
+      <c r="D72" s="52">
+        <v>14</v>
+      </c>
+      <c r="E72" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" s="54" t="s">
+      <c r="F72" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I72" s="46"/>
-      <c r="J72" s="46"/>
-      <c r="K72" s="24"/>
-      <c r="L72" s="57" t="s">
+      <c r="I72" s="44"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M72" s="3"/>
@@ -3100,25 +3091,25 @@
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="44">
-        <v>0.625</v>
-      </c>
-      <c r="E73" s="47" t="s">
+      <c r="D73" s="52">
+        <v>15</v>
+      </c>
+      <c r="E73" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" s="46" t="s">
+      <c r="F73" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="54" t="s">
+      <c r="H73" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="I73" s="46"/>
-      <c r="J73" s="46"/>
-      <c r="K73" s="24"/>
-      <c r="L73" s="57" t="s">
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M73" s="3"/>
@@ -3132,23 +3123,23 @@
       <c r="C74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="44">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="E74" s="47" t="s">
+      <c r="D74" s="52">
+        <v>16</v>
+      </c>
+      <c r="E74" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" s="46" t="s">
+      <c r="F74" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="46"/>
-      <c r="I74" s="46"/>
-      <c r="J74" s="46"/>
-      <c r="K74" s="24"/>
-      <c r="L74" s="49" t="s">
+      <c r="H74" s="44"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="23"/>
+      <c r="L74" s="47" t="s">
         <v>19</v>
       </c>
       <c r="M74" s="3"/>
@@ -3162,23 +3153,23 @@
       <c r="C75" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="50">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="E75" s="51" t="s">
+      <c r="D75" s="52">
+        <v>17</v>
+      </c>
+      <c r="E75" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" s="46" t="s">
+      <c r="F75" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="52"/>
-      <c r="I75" s="52"/>
-      <c r="J75" s="52"/>
-      <c r="K75" s="24"/>
-      <c r="L75" s="57" t="s">
+      <c r="H75" s="49"/>
+      <c r="I75" s="49"/>
+      <c r="J75" s="49"/>
+      <c r="K75" s="23"/>
+      <c r="L75" s="54" t="s">
         <v>36</v>
       </c>
       <c r="M75" s="3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guinslym/Documents/development/ask_schedule_fall/schedule/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{084BD52A-479A-5347-87F8-7625AE994802}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8334E65A-D03D-A04C-8E88-938EA193BAD4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,9 +97,6 @@
     <t>Laurentian</t>
   </si>
   <si>
-    <t>UOIT</t>
-  </si>
-  <si>
     <t>McMaster</t>
   </si>
   <si>
@@ -134,6 +131,9 @@
   </si>
   <si>
     <t>S. Portal</t>
+  </si>
+  <si>
+    <t>OTECH</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -439,14 +439,10 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -782,8 +778,8 @@
   </sheetPr>
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -846,8 +842,8 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7"/>
@@ -857,7 +853,7 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="52">
+      <c r="D3" s="50">
         <v>10</v>
       </c>
       <c r="E3" s="8" t="s">
@@ -895,7 +891,7 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="50">
         <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
@@ -933,7 +929,7 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="52">
+      <c r="D5" s="50">
         <v>12</v>
       </c>
       <c r="E5" s="20" t="s">
@@ -967,7 +963,7 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="52">
+      <c r="D6" s="50">
         <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
@@ -1001,7 +997,7 @@
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52">
+      <c r="D7" s="50">
         <v>14</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1011,7 +1007,7 @@
         <v>22</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H7" s="11" t="s">
         <v>15</v>
@@ -1039,7 +1035,7 @@
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8" s="50">
         <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
@@ -1047,7 +1043,7 @@
       </c>
       <c r="F8" s="23"/>
       <c r="G8" s="27" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>16</v>
@@ -1075,7 +1071,7 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="52">
+      <c r="D9" s="50">
         <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
@@ -1088,7 +1084,7 @@
         <v>14</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>21</v>
@@ -1111,7 +1107,7 @@
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="52">
+      <c r="D10" s="50">
         <v>17</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -1120,19 +1116,19 @@
       <c r="F10" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="53" t="s">
-        <v>36</v>
+      <c r="G10" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="13" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="23"/>
-      <c r="L10" s="53" t="s">
-        <v>36</v>
+      <c r="L10" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M10" s="24"/>
       <c r="N10" s="4"/>
@@ -1145,7 +1141,7 @@
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="52">
+      <c r="D11" s="50">
         <v>18</v>
       </c>
       <c r="E11" s="8" t="s">
@@ -1154,19 +1150,19 @@
       <c r="F11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="53" t="s">
-        <v>36</v>
+      <c r="G11" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="I11" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="J11" s="29"/>
       <c r="K11" s="23"/>
-      <c r="L11" s="53" t="s">
-        <v>36</v>
+      <c r="L11" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M11" s="24"/>
       <c r="N11" s="4"/>
@@ -1179,7 +1175,7 @@
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="52">
+      <c r="D12" s="50">
         <v>19</v>
       </c>
       <c r="E12" s="8" t="s">
@@ -1188,17 +1184,17 @@
       <c r="F12" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="53" t="s">
-        <v>36</v>
+      <c r="G12" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H12" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
       <c r="K12" s="23"/>
-      <c r="L12" s="53" t="s">
-        <v>36</v>
+      <c r="L12" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M12" s="26"/>
       <c r="N12" s="25"/>
@@ -1211,7 +1207,7 @@
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="52">
+      <c r="D13" s="50">
         <v>20</v>
       </c>
       <c r="E13" s="8" t="s">
@@ -1220,17 +1216,17 @@
       <c r="F13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="53" t="s">
-        <v>36</v>
+      <c r="G13" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
       <c r="K13" s="23"/>
-      <c r="L13" s="53" t="s">
-        <v>36</v>
+      <c r="L13" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M13" s="24"/>
       <c r="N13" s="4"/>
@@ -1243,7 +1239,7 @@
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="52">
+      <c r="D14" s="50">
         <v>21</v>
       </c>
       <c r="E14" s="8" t="s">
@@ -1252,15 +1248,15 @@
       <c r="F14" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="53" t="s">
-        <v>36</v>
+      <c r="G14" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
       <c r="J14" s="29"/>
       <c r="K14" s="23"/>
-      <c r="L14" s="53" t="s">
-        <v>36</v>
+      <c r="L14" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M14" s="24"/>
       <c r="N14" s="4"/>
@@ -1284,12 +1280,12 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7"/>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="52">
+      <c r="D16" s="50">
         <v>10</v>
       </c>
       <c r="E16" s="8" t="s">
@@ -1299,10 +1295,10 @@
         <v>14</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H16" s="31" t="s">
         <v>25</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>21</v>
@@ -1320,12 +1316,12 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7"/>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="52">
+      <c r="D17" s="50">
         <v>11</v>
       </c>
       <c r="E17" s="8" t="s">
@@ -1335,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H17" s="18" t="s">
         <v>22</v>
@@ -1356,12 +1352,12 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="52">
+      <c r="D18" s="50">
         <v>12</v>
       </c>
       <c r="E18" s="8" t="s">
@@ -1371,7 +1367,7 @@
         <v>15</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" s="29"/>
       <c r="I18" s="22" t="s">
@@ -1390,12 +1386,12 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7"/>
       <c r="B19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="52">
+      <c r="D19" s="50">
         <v>13</v>
       </c>
       <c r="E19" s="8" t="s">
@@ -1405,10 +1401,10 @@
         <v>15</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H19" s="32" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="H19" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="I19" s="22" t="s">
         <v>21</v>
@@ -1426,12 +1422,12 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7"/>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="52">
+      <c r="D20" s="50">
         <v>14</v>
       </c>
       <c r="E20" s="8" t="s">
@@ -1441,13 +1437,13 @@
         <v>15</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="33" t="s">
-        <v>29</v>
+      <c r="I20" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="J20" s="10" t="s">
         <v>14</v>
@@ -1462,20 +1458,20 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7"/>
       <c r="B21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21" s="50">
         <v>15</v>
       </c>
       <c r="E21" s="23"/>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="28" t="s">
         <v>25</v>
-      </c>
-      <c r="G21" s="28" t="s">
-        <v>26</v>
       </c>
       <c r="H21" s="18" t="s">
         <v>22</v>
@@ -1496,22 +1492,22 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7"/>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="52">
+      <c r="D22" s="50">
         <v>16</v>
       </c>
-      <c r="E22" s="53" t="s">
-        <v>36</v>
+      <c r="E22" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H22" s="23"/>
       <c r="I22" s="22" t="s">
@@ -1530,31 +1526,31 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7"/>
       <c r="B23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="52">
+      <c r="D23" s="50">
         <v>17</v>
       </c>
-      <c r="E23" s="35"/>
+      <c r="E23" s="33"/>
       <c r="F23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="53" t="s">
-        <v>36</v>
+      <c r="G23" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
-      <c r="L23" s="53" t="s">
-        <v>36</v>
+      <c r="L23" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M23" s="26"/>
       <c r="N23" s="25"/>
@@ -1562,12 +1558,12 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="52">
+      <c r="D24" s="50">
         <v>18</v>
       </c>
       <c r="E24" s="8" t="s">
@@ -1576,19 +1572,19 @@
       <c r="F24" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="53" t="s">
-        <v>36</v>
+      <c r="G24" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="I24" s="14" t="s">
         <v>18</v>
       </c>
       <c r="J24" s="29"/>
       <c r="K24" s="29"/>
-      <c r="L24" s="53" t="s">
-        <v>36</v>
+      <c r="L24" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M24" s="24"/>
       <c r="N24" s="4"/>
@@ -1596,12 +1592,12 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="7"/>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="52">
+      <c r="D25" s="50">
         <v>19</v>
       </c>
       <c r="E25" s="8" t="s">
@@ -1610,11 +1606,11 @@
       <c r="F25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="53" t="s">
-        <v>36</v>
+      <c r="G25" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="I25" s="29"/>
       <c r="J25" s="29"/>
@@ -1628,25 +1624,25 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="7"/>
       <c r="B26" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="52">
+      <c r="D26" s="50">
         <v>20</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>36</v>
+      <c r="F26" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="I26" s="29"/>
       <c r="J26" s="29"/>
@@ -1660,22 +1656,22 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7"/>
       <c r="B27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27" s="50">
         <v>21</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F27" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G27" s="53" t="s">
-        <v>36</v>
+      <c r="F27" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -1706,22 +1702,22 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="50">
         <v>10</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F29" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="31" t="s">
         <v>25</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>15</v>
@@ -1733,8 +1729,8 @@
         <v>16</v>
       </c>
       <c r="K29" s="23"/>
-      <c r="L29" s="36" t="s">
-        <v>31</v>
+      <c r="L29" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="M29" s="3"/>
       <c r="N29" s="3"/>
@@ -1742,19 +1738,19 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7"/>
       <c r="B30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="52">
+      <c r="D30" s="50">
         <v>11</v>
       </c>
-      <c r="E30" s="37" t="s">
+      <c r="E30" s="35" t="s">
         <v>20</v>
       </c>
       <c r="F30" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>14</v>
@@ -1769,8 +1765,8 @@
         <v>22</v>
       </c>
       <c r="K30" s="23"/>
-      <c r="L30" s="36" t="s">
-        <v>31</v>
+      <c r="L30" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="M30" s="3"/>
       <c r="N30" s="3"/>
@@ -1778,12 +1774,12 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7"/>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="52">
+      <c r="D31" s="50">
         <v>12</v>
       </c>
       <c r="E31" s="8" t="s">
@@ -1793,8 +1789,8 @@
       <c r="G31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="38" t="s">
-        <v>29</v>
+      <c r="H31" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="I31" s="22" t="s">
         <v>21</v>
@@ -1812,12 +1808,12 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7"/>
       <c r="B32" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="52">
+      <c r="D32" s="50">
         <v>13</v>
       </c>
       <c r="E32" s="8" t="s">
@@ -1848,12 +1844,12 @@
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7"/>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33" s="50">
         <v>14</v>
       </c>
       <c r="E33" s="8" t="s">
@@ -1871,8 +1867,8 @@
       <c r="I33" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="32" t="s">
-        <v>28</v>
+      <c r="J33" s="31" t="s">
+        <v>27</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>18</v>
@@ -1886,12 +1882,12 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7"/>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="52">
+      <c r="D34" s="50">
         <v>15</v>
       </c>
       <c r="E34" s="8" t="s">
@@ -1906,8 +1902,8 @@
       <c r="H34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I34" s="34" t="s">
-        <v>25</v>
+      <c r="I34" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="J34" s="23"/>
       <c r="K34" s="14" t="s">
@@ -1922,12 +1918,12 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7"/>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="52">
+      <c r="D35" s="50">
         <v>16</v>
       </c>
       <c r="E35" s="8" t="s">
@@ -1956,31 +1952,31 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7"/>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="52">
+      <c r="D36" s="50">
         <v>17</v>
       </c>
       <c r="E36" s="29"/>
       <c r="F36" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="53" t="s">
-        <v>36</v>
+      <c r="G36" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="I36" s="22" t="s">
         <v>21</v>
       </c>
       <c r="J36" s="29"/>
       <c r="K36" s="23"/>
-      <c r="L36" s="53" t="s">
-        <v>36</v>
+      <c r="L36" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
@@ -1988,23 +1984,23 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7"/>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="52">
+      <c r="D37" s="50">
         <v>18</v>
       </c>
       <c r="E37" s="29"/>
       <c r="F37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="53" t="s">
-        <v>36</v>
+      <c r="G37" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="I37" s="22" t="s">
         <v>21</v>
@@ -2013,8 +2009,8 @@
       <c r="K37" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L37" s="53" t="s">
-        <v>36</v>
+      <c r="L37" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
@@ -2022,12 +2018,12 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7"/>
       <c r="B38" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="52">
+      <c r="D38" s="50">
         <v>19</v>
       </c>
       <c r="E38" s="29"/>
@@ -2035,18 +2031,18 @@
         <v>13</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H38" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="I38" s="53" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="H38" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I38" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="J38" s="29"/>
       <c r="K38" s="23"/>
-      <c r="L38" s="53" t="s">
-        <v>36</v>
+      <c r="L38" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -2054,12 +2050,12 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7"/>
       <c r="B39" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39" s="50">
         <v>20</v>
       </c>
       <c r="E39" s="29"/>
@@ -2067,16 +2063,16 @@
         <v>13</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="H39" s="53" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="H39" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="I39" s="29"/>
       <c r="J39" s="29"/>
       <c r="K39" s="23"/>
-      <c r="L39" s="53" t="s">
-        <v>36</v>
+      <c r="L39" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -2084,12 +2080,12 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7"/>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="52">
+      <c r="D40" s="50">
         <v>21</v>
       </c>
       <c r="E40" s="29"/>
@@ -2097,16 +2093,16 @@
         <v>13</v>
       </c>
       <c r="G40" s="29"/>
-      <c r="H40" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="I40" s="53" t="s">
-        <v>36</v>
+      <c r="H40" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="I40" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="J40" s="29"/>
       <c r="K40" s="23"/>
-      <c r="L40" s="53" t="s">
-        <v>36</v>
+      <c r="L40" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -2130,12 +2126,12 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7"/>
       <c r="B42" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="52">
+      <c r="D42" s="50">
         <v>10</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -2147,8 +2143,8 @@
       <c r="G42" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H42" s="33" t="s">
-        <v>29</v>
+      <c r="H42" s="32" t="s">
+        <v>28</v>
       </c>
       <c r="I42" s="12" t="s">
         <v>16</v>
@@ -2156,7 +2152,7 @@
       <c r="J42" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="39"/>
+      <c r="K42" s="37"/>
       <c r="L42" s="15" t="s">
         <v>19</v>
       </c>
@@ -2166,12 +2162,12 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="7"/>
       <c r="B43" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="52">
+      <c r="D43" s="50">
         <v>11</v>
       </c>
       <c r="E43" s="8" t="s">
@@ -2192,7 +2188,7 @@
       <c r="J43" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K43" s="39"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="15" t="s">
         <v>19</v>
       </c>
@@ -2202,19 +2198,19 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="7"/>
       <c r="B44" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D44" s="52">
+      <c r="D44" s="50">
         <v>12</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F44" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G44" s="22" t="s">
         <v>21</v>
@@ -2225,8 +2221,8 @@
       <c r="I44" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J44" s="39"/>
-      <c r="K44" s="39"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
       <c r="L44" s="15" t="s">
         <v>19</v>
       </c>
@@ -2236,12 +2232,12 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7"/>
       <c r="B45" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45" s="50">
         <v>13</v>
       </c>
       <c r="E45" s="8" t="s">
@@ -2254,13 +2250,13 @@
         <v>21</v>
       </c>
       <c r="H45" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I45" s="11" t="s">
         <v>15</v>
       </c>
       <c r="J45" s="29"/>
-      <c r="K45" s="39"/>
+      <c r="K45" s="37"/>
       <c r="L45" s="15" t="s">
         <v>19</v>
       </c>
@@ -2270,12 +2266,12 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7"/>
       <c r="B46" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="52">
+      <c r="D46" s="50">
         <v>14</v>
       </c>
       <c r="E46" s="8" t="s">
@@ -2287,7 +2283,7 @@
       <c r="G46" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H46" s="40"/>
+      <c r="H46" s="38"/>
       <c r="I46" s="29"/>
       <c r="J46" s="18" t="s">
         <v>22</v>
@@ -2304,12 +2300,12 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7"/>
       <c r="B47" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="52">
+      <c r="D47" s="50">
         <v>15</v>
       </c>
       <c r="E47" s="18" t="s">
@@ -2322,7 +2318,7 @@
         <v>21</v>
       </c>
       <c r="H47" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>14</v>
@@ -2342,16 +2338,16 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7"/>
       <c r="B48" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="52">
+      <c r="D48" s="50">
         <v>16</v>
       </c>
-      <c r="E48" s="53" t="s">
-        <v>36</v>
+      <c r="E48" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>13</v>
@@ -2376,12 +2372,12 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7"/>
       <c r="B49" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="52">
+      <c r="D49" s="50">
         <v>17</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -2390,8 +2386,8 @@
       <c r="F49" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G49" s="53" t="s">
-        <v>36</v>
+      <c r="G49" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H49" s="29"/>
       <c r="I49" s="10" t="s">
@@ -2399,8 +2395,8 @@
       </c>
       <c r="J49" s="29"/>
       <c r="K49" s="23"/>
-      <c r="L49" s="53" t="s">
-        <v>36</v>
+      <c r="L49" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M49" s="3"/>
       <c r="N49" s="3"/>
@@ -2408,12 +2404,12 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7"/>
       <c r="B50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="52">
+      <c r="D50" s="50">
         <v>18</v>
       </c>
       <c r="E50" s="8" t="s">
@@ -2422,8 +2418,8 @@
       <c r="F50" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="53" t="s">
-        <v>36</v>
+      <c r="G50" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="10" t="s">
@@ -2433,8 +2429,8 @@
       <c r="K50" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="L50" s="53" t="s">
-        <v>36</v>
+      <c r="L50" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M50" s="3"/>
       <c r="N50" s="3"/>
@@ -2442,12 +2438,12 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7"/>
       <c r="B51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51" s="50">
         <v>19</v>
       </c>
       <c r="E51" s="8" t="s">
@@ -2456,15 +2452,15 @@
       <c r="F51" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G51" s="53" t="s">
-        <v>36</v>
+      <c r="G51" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H51" s="29"/>
       <c r="I51" s="29"/>
       <c r="J51" s="29"/>
       <c r="K51" s="23"/>
-      <c r="L51" s="53" t="s">
-        <v>36</v>
+      <c r="L51" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M51" s="3"/>
       <c r="N51" s="3"/>
@@ -2472,29 +2468,29 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="52">
+      <c r="D52" s="50">
         <v>20</v>
       </c>
       <c r="E52" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G52" s="53" t="s">
-        <v>36</v>
+      <c r="F52" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H52" s="29"/>
       <c r="I52" s="29"/>
       <c r="J52" s="29"/>
       <c r="K52" s="23"/>
-      <c r="L52" s="53" t="s">
-        <v>36</v>
+      <c r="L52" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M52" s="3"/>
       <c r="N52" s="3"/>
@@ -2502,29 +2498,29 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="52">
+      <c r="D53" s="50">
         <v>21</v>
       </c>
-      <c r="E53" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="53" t="s">
-        <v>36</v>
+      <c r="E53" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="F53" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
       <c r="J53" s="29"/>
       <c r="K53" s="23"/>
-      <c r="L53" s="53" t="s">
-        <v>36</v>
+      <c r="L53" s="51" t="s">
+        <v>35</v>
       </c>
       <c r="M53" s="3"/>
       <c r="N53" s="3"/>
@@ -2548,19 +2544,19 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="52">
+      <c r="D55" s="50">
         <v>10</v>
       </c>
       <c r="E55" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F55" s="34" t="s">
-        <v>25</v>
+      <c r="F55" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="G55" s="11" t="s">
         <v>15</v>
@@ -2571,8 +2567,8 @@
       <c r="I55" s="29"/>
       <c r="J55" s="29"/>
       <c r="K55" s="23"/>
-      <c r="L55" s="36" t="s">
-        <v>31</v>
+      <c r="L55" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
@@ -2580,12 +2576,12 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D56" s="52">
+      <c r="D56" s="50">
         <v>11</v>
       </c>
       <c r="E56" s="18" t="s">
@@ -2603,8 +2599,8 @@
       <c r="I56" s="29"/>
       <c r="J56" s="29"/>
       <c r="K56" s="23"/>
-      <c r="L56" s="36" t="s">
-        <v>31</v>
+      <c r="L56" s="34" t="s">
+        <v>30</v>
       </c>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
@@ -2612,12 +2608,12 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="52">
+      <c r="D57" s="50">
         <v>12</v>
       </c>
       <c r="E57" s="13" t="s">
@@ -2627,7 +2623,7 @@
         <v>14</v>
       </c>
       <c r="G57" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H57" s="22" t="s">
         <v>21</v>
@@ -2644,16 +2640,16 @@
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="52">
+      <c r="D58" s="50">
         <v>13</v>
       </c>
       <c r="E58" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>14</v>
@@ -2676,22 +2672,22 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="52">
+      <c r="D59" s="50">
         <v>14</v>
       </c>
-      <c r="E59" s="34" t="s">
-        <v>25</v>
+      <c r="E59" s="27" t="s">
+        <v>37</v>
       </c>
       <c r="F59" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G59" s="32" t="s">
-        <v>37</v>
+      <c r="G59" s="31" t="s">
+        <v>36</v>
       </c>
       <c r="H59" s="22" t="s">
         <v>21</v>
@@ -2708,12 +2704,12 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D60" s="52">
+      <c r="D60" s="50">
         <v>15</v>
       </c>
       <c r="E60" s="13" t="s">
@@ -2740,12 +2736,12 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D61" s="52">
+      <c r="D61" s="50">
         <v>16</v>
       </c>
       <c r="E61" s="13" t="s">
@@ -2772,45 +2768,45 @@
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="42"/>
-      <c r="F62" s="42"/>
-      <c r="G62" s="42"/>
-      <c r="H62" s="42"/>
-      <c r="I62" s="42"/>
-      <c r="J62" s="42"/>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="J62" s="40"/>
+      <c r="K62" s="40"/>
+      <c r="L62" s="40"/>
       <c r="M62" s="3"/>
       <c r="N62" s="3"/>
     </row>
     <row r="63" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D63" s="52">
+      <c r="D63" s="50">
         <v>12</v>
       </c>
-      <c r="E63" s="43" t="s">
+      <c r="E63" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F63" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G63" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H63" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I63" s="44"/>
-      <c r="J63" s="44"/>
+      <c r="F63" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H63" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
       <c r="K63" s="23"/>
-      <c r="L63" s="54" t="s">
-        <v>36</v>
+      <c r="L63" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M63" s="3"/>
       <c r="N63" s="3"/>
@@ -2818,31 +2814,31 @@
     <row r="64" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D64" s="52">
+      <c r="D64" s="50">
         <v>13</v>
       </c>
-      <c r="E64" s="45" t="s">
+      <c r="E64" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F64" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G64" s="46" t="s">
+      <c r="F64" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G64" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H64" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I64" s="44"/>
-      <c r="J64" s="44"/>
+      <c r="H64" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
       <c r="K64" s="23"/>
-      <c r="L64" s="54" t="s">
-        <v>36</v>
+      <c r="L64" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M64" s="3"/>
       <c r="N64" s="3"/>
@@ -2850,31 +2846,31 @@
     <row r="65" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D65" s="52">
+      <c r="D65" s="50">
         <v>14</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F65" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="46" t="s">
+      <c r="F65" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G65" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H65" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I65" s="44"/>
-      <c r="J65" s="44"/>
+      <c r="H65" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
       <c r="K65" s="23"/>
-      <c r="L65" s="54" t="s">
-        <v>36</v>
+      <c r="L65" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M65" s="3"/>
       <c r="N65" s="3"/>
@@ -2882,31 +2878,31 @@
     <row r="66" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="52">
+      <c r="D66" s="50">
         <v>15</v>
       </c>
-      <c r="E66" s="45" t="s">
+      <c r="E66" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F66" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G66" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H66" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
+      <c r="F66" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G66" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
       <c r="K66" s="23"/>
-      <c r="L66" s="54" t="s">
-        <v>36</v>
+      <c r="L66" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M66" s="3"/>
       <c r="N66" s="3"/>
@@ -2914,28 +2910,28 @@
     <row r="67" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="52">
+      <c r="D67" s="50">
         <v>16</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F67" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G67" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
-      <c r="J67" s="44"/>
+      <c r="F67" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
       <c r="K67" s="23"/>
-      <c r="L67" s="47" t="s">
+      <c r="L67" s="45" t="s">
         <v>19</v>
       </c>
       <c r="M67" s="3"/>
@@ -2944,29 +2940,29 @@
     <row r="68" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D68" s="52">
+      <c r="D68" s="50">
         <v>17</v>
       </c>
-      <c r="E68" s="48" t="s">
+      <c r="E68" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F68" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G68" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" s="49"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="49"/>
+      <c r="F68" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" s="47"/>
+      <c r="I68" s="47"/>
+      <c r="J68" s="47"/>
       <c r="K68" s="23"/>
-      <c r="L68" s="54" t="s">
-        <v>36</v>
+      <c r="L68" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M68" s="3"/>
       <c r="N68" s="3"/>
@@ -2975,46 +2971,46 @@
       <c r="A69" s="1"/>
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="42"/>
-      <c r="F69" s="42"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="50"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="48"/>
+      <c r="I69" s="40"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="40"/>
+      <c r="L69" s="40"/>
       <c r="M69" s="3"/>
       <c r="N69" s="3"/>
     </row>
     <row r="70" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="52">
+      <c r="D70" s="50">
         <v>12</v>
       </c>
-      <c r="E70" s="43" t="s">
+      <c r="E70" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="F70" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G70" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H70" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="I70" s="44"/>
-      <c r="J70" s="44"/>
+      <c r="F70" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G70" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H70" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
       <c r="K70" s="23"/>
-      <c r="L70" s="54" t="s">
-        <v>36</v>
+      <c r="L70" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M70" s="3"/>
       <c r="N70" s="3"/>
@@ -3022,31 +3018,31 @@
     <row r="71" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="52">
+      <c r="D71" s="50">
         <v>13</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F71" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G71" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H71" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="I71" s="44"/>
-      <c r="J71" s="44"/>
+      <c r="F71" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G71" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H71" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
       <c r="K71" s="23"/>
-      <c r="L71" s="54" t="s">
-        <v>36</v>
+      <c r="L71" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M71" s="3"/>
       <c r="N71" s="3"/>
@@ -3054,31 +3050,31 @@
     <row r="72" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="52">
+      <c r="D72" s="50">
         <v>14</v>
       </c>
-      <c r="E72" s="45" t="s">
+      <c r="E72" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F72" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="H72" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="I72" s="44"/>
-      <c r="J72" s="44"/>
+      <c r="F72" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H72" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
       <c r="K72" s="23"/>
-      <c r="L72" s="54" t="s">
-        <v>36</v>
+      <c r="L72" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M72" s="3"/>
       <c r="N72" s="3"/>
@@ -3086,31 +3082,31 @@
     <row r="73" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="52">
+      <c r="D73" s="50">
         <v>15</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E73" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F73" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G73" s="44" t="s">
+      <c r="F73" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G73" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H73" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="I73" s="44"/>
-      <c r="J73" s="44"/>
+      <c r="H73" s="49" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
       <c r="K73" s="23"/>
-      <c r="L73" s="54" t="s">
-        <v>36</v>
+      <c r="L73" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M73" s="3"/>
       <c r="N73" s="3"/>
@@ -3118,28 +3114,28 @@
     <row r="74" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="52">
+      <c r="D74" s="50">
         <v>16</v>
       </c>
-      <c r="E74" s="45" t="s">
+      <c r="E74" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="F74" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G74" s="44" t="s">
+      <c r="F74" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H74" s="44"/>
-      <c r="I74" s="44"/>
-      <c r="J74" s="44"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
       <c r="K74" s="23"/>
-      <c r="L74" s="47" t="s">
+      <c r="L74" s="45" t="s">
         <v>19</v>
       </c>
       <c r="M74" s="3"/>
@@ -3148,29 +3144,29 @@
     <row r="75" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D75" s="52">
+      <c r="D75" s="50">
         <v>17</v>
       </c>
-      <c r="E75" s="48" t="s">
+      <c r="E75" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="F75" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G75" s="44" t="s">
+      <c r="F75" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="G75" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="47"/>
+      <c r="J75" s="47"/>
       <c r="K75" s="23"/>
-      <c r="L75" s="54" t="s">
-        <v>36</v>
+      <c r="L75" s="52" t="s">
+        <v>35</v>
       </c>
       <c r="M75" s="3"/>
       <c r="N75" s="3"/>
